--- a/ANN/Data2/Optimised_Networks/Predictions/2_16-16_50_0.0004_20 predictions_manual 3.xlsx
+++ b/ANN/Data2/Optimised_Networks/Predictions/2_16-16_50_0.0004_20 predictions_manual 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN\Data2\Optimised_Networks\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63941B1F-686E-4599-B265-6C063479F9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B6D90D-FA37-4CEE-8D2A-154CDF67A2DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9325423850878391E-2"/>
+          <c:y val="2.4929178470254956E-2"/>
+          <c:w val="0.89321552870005494"/>
+          <c:h val="0.88418817307221431"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -192,7 +202,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Biomass Experimental</c:v>
+            <c:v>Experimental</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -323,7 +333,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Biomass Predicted</c:v>
+            <c:v>Predicted</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -482,6 +492,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1"/>
+                  <a:t>Time (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -544,6 +609,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1"/>
+                  <a:t>Biomass Concentration (g/L)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.0651992165667016E-3"/>
+              <c:y val="0.34153056761620659"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -593,6 +721,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73771327065071868"/>
+          <c:y val="0.39474862631901086"/>
+          <c:w val="9.6042577288328476E-2"/>
+          <c:h val="0.13962315087972493"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -661,7 +830,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>n</c:v>
+            <c:v>Experimental</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -792,7 +961,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>k</c:v>
+            <c:v>Predicted</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -803,7 +972,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -951,6 +1120,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1"/>
+                  <a:t>Time (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1013,6 +1237,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1"/>
+                  <a:t>Nitrate Concentration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+                  <a:t> (mg/L)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1062,6 +1346,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71104383034179308"/>
+          <c:y val="0.57023248582813402"/>
+          <c:w val="0.11939491356764469"/>
+          <c:h val="0.12343019891484215"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1122,7 +1447,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6830646096903562E-2"/>
+          <c:y val="2.5444875507713603E-2"/>
+          <c:w val="0.90867212882732651"/>
+          <c:h val="0.87161120521647273"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1130,7 +1465,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>l</c:v>
+            <c:v>Experimental</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1261,7 +1596,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>lp</c:v>
+            <c:v>Predicted</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1420,6 +1755,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1" i="0"/>
+                  <a:t>Time (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48417710946194614"/>
+              <c:y val="0.9414649472706409"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1482,6 +1880,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1"/>
+                  <a:t>Lutein Production (mg/L)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1533,6 +1986,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78674402655242814"/>
+          <c:y val="0.38035917891554194"/>
+          <c:w val="8.4256947528204174E-2"/>
+          <c:h val="6.9106241917563691E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6428,16 +6891,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>159443</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52942</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6464,16 +6927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>395286</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>307366</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>96632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>41412</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6500,16 +6963,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>338931</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>13493</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>28332</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>54907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>586581</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123031</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>168772</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>20707</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6936,10 +7399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:AF43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D27"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AG43" sqref="AG43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7886,7 +8349,7 @@
         <v>0.40657766275187274</v>
       </c>
     </row>
-    <row r="33" spans="18:26">
+    <row r="33" spans="18:32">
       <c r="S33">
         <f t="shared" si="1"/>
         <v>2.5653794541671479E-2</v>
@@ -7912,7 +8375,7 @@
         <v>0.24914769648949003</v>
       </c>
     </row>
-    <row r="34" spans="18:26">
+    <row r="34" spans="18:32">
       <c r="S34">
         <f t="shared" si="1"/>
         <v>2.260897208921054E-2</v>
@@ -7938,7 +8401,7 @@
         <v>0.31647273669407122</v>
       </c>
     </row>
-    <row r="35" spans="18:26">
+    <row r="35" spans="18:32">
       <c r="S35">
         <f t="shared" si="1"/>
         <v>5.4503158290767958E-3</v>
@@ -7964,7 +8427,7 @@
         <v>0.17867605217535451</v>
       </c>
     </row>
-    <row r="36" spans="18:26">
+    <row r="36" spans="18:32">
       <c r="S36">
         <f t="shared" si="1"/>
         <v>2.5978680165687856E-2</v>
@@ -7990,7 +8453,7 @@
         <v>0.10814605393179169</v>
       </c>
     </row>
-    <row r="37" spans="18:26">
+    <row r="37" spans="18:32">
       <c r="S37">
         <f t="shared" si="1"/>
         <v>4.0556301301708314E-2</v>
@@ -8016,7 +8479,7 @@
         <v>0.13184829814966878</v>
       </c>
     </row>
-    <row r="38" spans="18:26">
+    <row r="38" spans="18:32">
       <c r="S38">
         <f t="shared" si="1"/>
         <v>2.6572367172746685E-2</v>
@@ -8042,7 +8505,7 @@
         <v>0.11577452724785718</v>
       </c>
     </row>
-    <row r="39" spans="18:26">
+    <row r="39" spans="18:32">
       <c r="S39">
         <f t="shared" si="1"/>
         <v>8.6781083945805214E-3</v>
@@ -8068,7 +8531,7 @@
         <v>6.8373166861160517E-2</v>
       </c>
     </row>
-    <row r="40" spans="18:26">
+    <row r="40" spans="18:32">
       <c r="S40">
         <f t="shared" si="1"/>
         <v>3.3693162904992885E-3</v>
@@ -8094,7 +8557,7 @@
         <v>5.4981955183247113E-3</v>
       </c>
     </row>
-    <row r="41" spans="18:26">
+    <row r="41" spans="18:32">
       <c r="S41">
         <f t="shared" si="1"/>
         <v>5.7805623764197508E-3</v>
@@ -8120,7 +8583,7 @@
         <v>1.9089744819203943E-2</v>
       </c>
     </row>
-    <row r="42" spans="18:26">
+    <row r="42" spans="18:32">
       <c r="S42">
         <f>ABS((J14-B14)/J14)</f>
         <v>1.0137797459890373E-2</v>
@@ -8146,7 +8609,7 @@
         <v>1.6556518786429053E-2</v>
       </c>
     </row>
-    <row r="43" spans="18:26">
+    <row r="43" spans="18:32">
       <c r="R43" t="s">
         <v>5</v>
       </c>
@@ -8173,6 +8636,18 @@
       <c r="Z43">
         <f t="shared" si="6"/>
         <v>15.580649598731059</v>
+      </c>
+      <c r="AD43">
+        <f>AVERAGE(S43:U43)</f>
+        <v>12.916170301368815</v>
+      </c>
+      <c r="AE43">
+        <f>AVERAGE(X43:Z43)</f>
+        <v>13.647995374452831</v>
+      </c>
+      <c r="AF43">
+        <f>AVERAGE(AD43:AE43)</f>
+        <v>13.282082837910824</v>
       </c>
     </row>
   </sheetData>
